--- a/stock_predictor_ai/data/company_sentiment_ready/AIZ_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/AIZ_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5384"/>
+  <dimension ref="A1:B5438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43513,6 +43513,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5385">
+      <c r="A5385" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B5385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5386">
+      <c r="A5386" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B5386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5387">
+      <c r="A5387" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B5387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5388">
+      <c r="A5388" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B5388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5389">
+      <c r="A5389" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B5389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5390">
+      <c r="A5390" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B5390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5391">
+      <c r="A5391" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B5391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5392">
+      <c r="A5392" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B5392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5393">
+      <c r="A5393" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B5393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5394">
+      <c r="A5394" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B5394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5395">
+      <c r="A5395" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B5395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5396">
+      <c r="A5396" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B5396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5397">
+      <c r="A5397" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B5397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5398">
+      <c r="A5398" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B5398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5399">
+      <c r="A5399" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B5399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5400">
+      <c r="A5400" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B5400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5401">
+      <c r="A5401" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B5401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5402">
+      <c r="A5402" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B5402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5403">
+      <c r="A5403" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B5403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5404">
+      <c r="A5404" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B5404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5405">
+      <c r="A5405" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B5405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5406">
+      <c r="A5406" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B5406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5407">
+      <c r="A5407" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B5407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5408">
+      <c r="A5408" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B5408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5409">
+      <c r="A5409" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B5409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5410">
+      <c r="A5410" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B5410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5411">
+      <c r="A5411" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B5411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5412">
+      <c r="A5412" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B5412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5413">
+      <c r="A5413" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B5413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5414">
+      <c r="A5414" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B5414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5415">
+      <c r="A5415" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B5415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5416">
+      <c r="A5416" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B5416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5417">
+      <c r="A5417" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B5417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5418">
+      <c r="A5418" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B5418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5419">
+      <c r="A5419" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B5419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5420">
+      <c r="A5420" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B5420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5421">
+      <c r="A5421" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B5421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5422">
+      <c r="A5422" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B5422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5423">
+      <c r="A5423" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B5423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5424">
+      <c r="A5424" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B5424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5425">
+      <c r="A5425" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B5425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5426">
+      <c r="A5426" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B5426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5427">
+      <c r="A5427" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B5427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5428">
+      <c r="A5428" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B5428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5429">
+      <c r="A5429" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B5429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5430">
+      <c r="A5430" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B5430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5431">
+      <c r="A5431" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B5431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5432">
+      <c r="A5432" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B5432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5433">
+      <c r="A5433" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B5433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5434">
+      <c r="A5434" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B5434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5435">
+      <c r="A5435" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B5435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5436">
+      <c r="A5436" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B5436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5437">
+      <c r="A5437" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B5437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5438">
+      <c r="A5438" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B5438" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
